--- a/Scheduler/rankings/Rankings_2023_Q2.xlsx
+++ b/Scheduler/rankings/Rankings_2023_Q2.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J5" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="K5" s="7" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="M5" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲14</t>
         </is>
       </c>
       <c r="N5" s="25" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="S5" s="53" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲17</t>
         </is>
       </c>
       <c r="T5" s="7" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D6" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G6" s="50" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="H6" s="8" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="J6" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="K6" s="8" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="S6" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="T6" s="8" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="Y6" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z6" s="8" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D7" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="G7" s="50" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="H7" s="8" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="J7" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="K7" s="8" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="M7" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="N7" s="29" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="P7" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="8" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="S7" s="56" t="inlineStr">
         <is>
-          <t>▲9</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="T7" s="8" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="Y7" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Z7" s="8" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AB7" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="AC7" s="8" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D8" s="76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="G8" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="H8" s="8" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="J8" s="50" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="K8" s="8" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="M8" s="56" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="N8" s="29" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="P8" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q8" s="8" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="S8" s="56" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="T8" s="8" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G9" s="50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H9" s="8" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="J9" s="56" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="K9" s="8" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="M9" s="56" t="inlineStr">
         <is>
-          <t>▲13</t>
+          <t>▲26</t>
         </is>
       </c>
       <c r="N9" s="29" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="P9" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="Q9" s="8" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="V9" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="W9" s="8" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="AB9" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="AC9" s="8" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D10" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="G10" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="H10" s="96" t="inlineStr">
@@ -2349,12 +2349,12 @@
       </c>
       <c r="J10" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲27</t>
         </is>
       </c>
       <c r="K10" s="28" t="inlineStr">
         <is>
-          <t>신영증권</t>
+          <t>부국증권</t>
         </is>
       </c>
       <c r="L10" s="56" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="M10" s="60" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="N10" s="8" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="P10" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q10" s="95" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="S10" s="56" t="inlineStr">
         <is>
-          <t>▲11</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="T10" s="8" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="V10" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="W10" s="8" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="AB10" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="AC10" s="8" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G11" s="50" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="H11" s="96" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="J11" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="K11" s="28" t="inlineStr">
         <is>
-          <t>부국증권</t>
+          <t>신영증권</t>
         </is>
       </c>
       <c r="L11" s="56" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M11" s="60" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▲27</t>
         </is>
       </c>
       <c r="N11" s="8" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P11" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q11" s="95" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="S11" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="8" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="AB11" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC11" s="8" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G12" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="H12" s="96" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="J12" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="K12" s="28" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="M12" s="60" t="inlineStr">
         <is>
-          <t>▲6</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="N12" s="8" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="P12" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="Q12" s="95" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="S12" s="56" t="inlineStr">
         <is>
-          <t>▼4</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="T12" s="8" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="AB12" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="AC12" s="10" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="G13" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="H13" s="96" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="J13" s="51" t="inlineStr">
         <is>
-          <t>▲15</t>
+          <t>▲25</t>
         </is>
       </c>
       <c r="K13" s="28" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="M13" s="60" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N13" s="8" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="P13" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="Q13" s="95" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="Y13" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Z13" s="8" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="G14" s="55" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" s="98" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J14" s="52" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲11</t>
         </is>
       </c>
       <c r="K14" s="15" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="M14" s="61" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲13</t>
         </is>
       </c>
       <c r="N14" s="11" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="P14" s="52" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q14" s="99" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="S14" s="54" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T14" s="11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="G15" s="53" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲14</t>
         </is>
       </c>
       <c r="H15" s="100" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="J15" s="53" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="K15" s="24" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="M15" s="62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="N15" s="7" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="P15" s="53" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Q15" s="93" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="S15" s="58" t="inlineStr">
         <is>
-          <t>▼6</t>
+          <t>▲9</t>
         </is>
       </c>
       <c r="T15" s="7" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="AB15" s="53" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC15" s="7" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D16" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="E16" s="8" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G16" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H16" s="96" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J16" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="M16" s="60" t="inlineStr">
         <is>
-          <t>▲20</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="N16" s="8" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="S16" s="56" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="8" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="Y16" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z16" s="8" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D17" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="E17" s="8" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="G17" s="50" t="inlineStr">
         <is>
-          <t>▲7</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="H17" s="96" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="J17" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="K17" s="28" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="M17" s="60" t="inlineStr">
         <is>
-          <t>▼8</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="N17" s="8" t="inlineStr">
@@ -3354,12 +3354,12 @@
       </c>
       <c r="S17" s="56" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲9</t>
         </is>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
-          <t>키움증권</t>
+          <t>SK증권</t>
         </is>
       </c>
       <c r="U17" s="8" t="n">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="V17" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W17" s="8" t="inlineStr">
         <is>
-          <t>IBK투자증권</t>
+          <t>아이엠증권</t>
         </is>
       </c>
       <c r="X17" s="8" t="n">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="Y17" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Z17" s="8" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="AB17" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC17" s="8" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="G18" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="H18" s="96" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="J18" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼8</t>
         </is>
       </c>
       <c r="K18" s="28" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="M18" s="60" t="inlineStr">
         <is>
-          <t>▼5</t>
+          <t>▼11</t>
         </is>
       </c>
       <c r="N18" s="8" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="P18" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q18" s="95" t="inlineStr">
@@ -3492,12 +3492,12 @@
       </c>
       <c r="S18" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
-          <t>SK증권</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="U18" s="8" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="V18" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="W18" s="8" t="inlineStr">
         <is>
-          <t>아이엠증권</t>
+          <t>IBK투자증권</t>
         </is>
       </c>
       <c r="X18" s="8" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="Y18" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z18" s="8" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="AB18" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="AC18" s="8" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G19" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H19" s="96" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="J19" s="51" t="inlineStr">
         <is>
-          <t>▲6</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="K19" s="28" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="M19" s="60" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="N19" s="8" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="P19" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q19" s="95" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="S19" s="56" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T19" s="8" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="V19" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="W19" s="8" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="AB19" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="AC19" s="8" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G20" s="51" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="H20" s="96" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J20" s="57" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="K20" s="35" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="M20" s="60" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="N20" s="8" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="P20" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="Q20" s="95" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="S20" s="56" t="inlineStr">
         <is>
-          <t>▼6</t>
+          <t>▲8</t>
         </is>
       </c>
       <c r="T20" s="8" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="AB20" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AC20" s="8" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="G21" s="51" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="H21" s="96" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="J21" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="K21" s="28" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="M21" s="60" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N21" s="8" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="P21" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="Q21" s="95" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="S21" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼12</t>
         </is>
       </c>
       <c r="T21" s="8" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="V21" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W21" s="8" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="AB21" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AC21" s="8" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G22" s="51" t="inlineStr">
         <is>
-          <t>▲7</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H22" s="96" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="J22" s="51" t="inlineStr">
         <is>
-          <t>▲10</t>
+          <t>▼10</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="M22" s="60" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼10</t>
         </is>
       </c>
       <c r="N22" s="8" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="P22" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="Q22" s="95" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="S22" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼7</t>
         </is>
       </c>
       <c r="T22" s="8" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="AB22" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC22" s="8" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="G23" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="H23" s="96" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="J23" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="K23" s="28" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="M23" s="63" t="inlineStr">
         <is>
-          <t>▲10</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="N23" s="10" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="P23" s="51" t="inlineStr">
         <is>
-          <t>▲6</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="Q23" s="95" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="S23" s="56" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="T23" s="8" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="AB23" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC23" s="8" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="G24" s="52" t="inlineStr">
         <is>
-          <t>▼6</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="H24" s="98" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J24" s="52" t="inlineStr">
         <is>
-          <t>▼10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K24" s="15" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="M24" s="61" t="inlineStr">
         <is>
-          <t>▲8</t>
+          <t>▼13</t>
         </is>
       </c>
       <c r="N24" s="11" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="P24" s="52" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="Q24" s="99" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="S24" s="54" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="T24" s="11" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="G25" s="53" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="H25" s="100" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="J25" s="53" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▲10</t>
         </is>
       </c>
       <c r="K25" s="24" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="M25" s="62" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="N25" s="7" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="P25" s="53" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q25" s="93" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="S25" s="53" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="T25" s="7" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="V25" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲16</t>
         </is>
       </c>
       <c r="W25" s="7" t="inlineStr">
         <is>
-          <t>상상인증권</t>
+          <t>비엔케이투자증권</t>
         </is>
       </c>
       <c r="X25" s="7" t="n">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="G26" s="51" t="inlineStr">
         <is>
-          <t>▼6</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="H26" s="96" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="M26" s="60" t="inlineStr">
         <is>
-          <t>▼9</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="N26" s="8" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="P26" s="53" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="Q26" s="95" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="S26" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="T26" s="8" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="V26" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="W26" s="8" t="inlineStr">
         <is>
-          <t>비엔케이투자증권</t>
+          <t>상상인증권</t>
         </is>
       </c>
       <c r="X26" s="8" t="n">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="G27" s="51" t="inlineStr">
         <is>
-          <t>▼5</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="H27" s="96" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="J27" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="K27" s="28" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="M27" s="60" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="N27" s="8" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="P27" s="51" t="inlineStr">
         <is>
-          <t>▼4</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q27" s="95" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="S27" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T27" s="8" t="inlineStr">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="V27" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W27" s="8" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G28" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H28" s="96" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J28" s="51" t="inlineStr">
         <is>
-          <t>▲9</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="K28" s="28" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="M28" s="60" t="inlineStr">
         <is>
-          <t>▲11</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="N28" s="8" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="P28" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼7</t>
         </is>
       </c>
       <c r="Q28" s="95" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="S28" s="51" t="inlineStr">
         <is>
-          <t>▼11</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="T28" s="8" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="V28" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W28" s="8" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G29" s="51" t="inlineStr">
         <is>
-          <t>▼15</t>
+          <t>▼16</t>
         </is>
       </c>
       <c r="H29" s="96" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="J29" s="51" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▼16</t>
         </is>
       </c>
       <c r="K29" s="28" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="M29" s="60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼12</t>
         </is>
       </c>
       <c r="N29" s="8" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="P29" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲10</t>
         </is>
       </c>
       <c r="Q29" s="95" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="S29" s="51" t="inlineStr">
         <is>
-          <t>▲6</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="T29" s="8" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="G30" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="H30" s="96" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="J30" s="51" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="K30" s="28" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="M30" s="60" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▼14</t>
         </is>
       </c>
       <c r="N30" s="8" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="P30" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="Q30" s="95" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="S30" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼7</t>
         </is>
       </c>
       <c r="T30" s="8" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="V30" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W30" s="8" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G31" s="51" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="H31" s="96" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="J31" s="51" t="inlineStr">
         <is>
-          <t>▼18</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="K31" s="28" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="M31" s="60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="N31" s="8" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="P31" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="Q31" s="95" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="S31" s="56" t="inlineStr">
         <is>
-          <t>▼5</t>
+          <t>▼19</t>
         </is>
       </c>
       <c r="T31" s="8" t="inlineStr">
@@ -5299,12 +5299,12 @@
       </c>
       <c r="V31" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="W31" s="8" t="inlineStr">
         <is>
-          <t>케이프투자증권</t>
+          <t>다올투자증권</t>
         </is>
       </c>
       <c r="X31" s="8" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="AB31" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="AC31" s="8" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="D32" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="G32" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H32" s="96" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="J32" s="51" t="inlineStr">
         <is>
-          <t>▲7</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="K32" s="28" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="M32" s="60" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="N32" s="8" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="P32" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="Q32" s="95" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="S32" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="T32" s="8" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="W32" s="8" t="inlineStr">
         <is>
-          <t>케이아이디비채권중개</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="X32" s="8" t="n">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="AB32" s="51" t="inlineStr">
         <is>
-          <t>▲8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC32" s="8" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D33" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G33" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" s="8" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="J33" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼15</t>
         </is>
       </c>
       <c r="K33" s="8" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="M33" s="56" t="inlineStr">
         <is>
-          <t>▼14</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="N33" s="29" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="P33" s="56" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="Q33" s="8" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="S33" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="T33" s="8" t="inlineStr">
@@ -5575,12 +5575,12 @@
       </c>
       <c r="V33" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="W33" s="8" t="inlineStr">
         <is>
-          <t>다올투자증권</t>
+          <t>케이아이디비채권중개</t>
         </is>
       </c>
       <c r="X33" s="8" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="AB33" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="AC33" s="8" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="AE33" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="AF33" s="71" t="n">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D34" s="54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="E34" s="11" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="G34" s="54" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" s="11" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="J34" s="54" t="inlineStr">
         <is>
-          <t>▼8</t>
+          <t>▼17</t>
         </is>
       </c>
       <c r="K34" s="11" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="M34" s="54" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="N34" s="32" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="P34" s="54" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Q34" s="11" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="V34" s="52" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W34" s="11" t="inlineStr">
         <is>
-          <t>키움증권</t>
+          <t>리딩투자증권</t>
         </is>
       </c>
       <c r="X34" s="11" t="n">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="AB34" s="52" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC34" s="11" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="AE34" s="52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AF34" s="72" t="n">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="D35" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G35" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="H35" s="7" t="inlineStr">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="M35" s="58" t="inlineStr">
         <is>
-          <t>▼11</t>
+          <t>▼13</t>
         </is>
       </c>
       <c r="N35" s="25" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="P35" s="58" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q35" s="7" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="S35" s="58" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="T35" s="7" t="inlineStr">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="V35" s="53" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="W35" s="7" t="inlineStr">
         <is>
-          <t>코리아에셋투자증권</t>
+          <t>DS투자증권</t>
         </is>
       </c>
       <c r="X35" s="7" t="n">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="AB35" s="53" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC35" s="7" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="AE35" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AF35" s="73" t="n">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="D36" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="G36" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H36" s="8" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J36" s="56" t="inlineStr">
         <is>
-          <t>▼13</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="K36" s="8" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="M36" s="56" t="inlineStr">
         <is>
-          <t>▼9</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="N36" s="29" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="P36" s="56" t="inlineStr">
         <is>
-          <t>▼8</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="Q36" s="8" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="S36" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T36" s="8" t="inlineStr">
@@ -5989,12 +5989,12 @@
       </c>
       <c r="V36" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="W36" s="8" t="inlineStr">
         <is>
-          <t>DS투자증권</t>
+          <t>흥국증권</t>
         </is>
       </c>
       <c r="X36" s="8" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="AB36" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="AC36" s="8" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="AE36" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AF36" s="71" t="n">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D37" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="E37" s="8" t="inlineStr">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="J37" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼11</t>
         </is>
       </c>
       <c r="K37" s="8" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="M37" s="56" t="inlineStr">
         <is>
-          <t>▼30</t>
+          <t>▼22</t>
         </is>
       </c>
       <c r="N37" s="29" t="inlineStr">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="P37" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="Q37" s="8" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="S37" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="T37" s="8" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="W37" s="8" t="inlineStr">
         <is>
-          <t>리딩투자증권</t>
+          <t>케이프투자증권</t>
         </is>
       </c>
       <c r="X37" s="8" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="AB37" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC37" s="8" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="G38" s="51" t="inlineStr">
         <is>
-          <t>▼8</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="H38" s="8" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="J38" s="56" t="inlineStr">
         <is>
-          <t>▼7</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="K38" s="8" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="M38" s="56" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼15</t>
         </is>
       </c>
       <c r="N38" s="29" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="P38" s="56" t="inlineStr">
         <is>
-          <t>▼4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q38" s="8" t="inlineStr">
@@ -6265,12 +6265,12 @@
       </c>
       <c r="V38" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W38" s="8" t="inlineStr">
         <is>
-          <t>흥국증권</t>
+          <t>코리아에셋투자증권</t>
         </is>
       </c>
       <c r="X38" s="8" t="n">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="AB38" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="AC38" s="8" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="G39" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" s="10" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="J39" s="59" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="K39" s="10" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="M39" s="59" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="N39" s="36" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="S39" s="59" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="T39" s="10" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="V39" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="W39" s="10" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="Y39" s="57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z39" s="10" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="AB39" s="57" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼8</t>
         </is>
       </c>
       <c r="AC39" s="10" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H40" s="8" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="J40" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="K40" s="8" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="M40" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="N40" s="29" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="P40" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="Q40" s="8" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="V40" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="W40" s="8" t="inlineStr">
         <is>
-          <t>우리투자증권(구.포스증권)</t>
+          <t>토스증권</t>
         </is>
       </c>
       <c r="X40" s="8" t="n">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="Y40" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z40" s="8" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J41" s="54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="K41" s="11" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="S41" s="54" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T41" s="11" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="V41" s="52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="W41" s="11" t="inlineStr">
         <is>
-          <t>토스증권</t>
+          <t>우리투자증권(구.포스증권)</t>
         </is>
       </c>
       <c r="X41" s="11" t="n">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="Y41" s="52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼8</t>
         </is>
       </c>
       <c r="Z41" s="11" t="inlineStr">
